--- a/Protokolle/Statusprotokoll_Arbeitszeitverwaltung_Sprint1.xlsx
+++ b/Protokolle/Statusprotokoll_Arbeitszeitverwaltung_Sprint1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5681F3-BC8C-4AE6-8CE6-13447ED1DF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D4502F-CB5E-4919-9A2F-BC907BD530F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D76CD718-F911-4B74-8B36-452779118D5B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>23.9.2019-27.09.2019</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>Use-Case Diagramm, Statusprotokoll, Besprechung der Datenbankstruktur</t>
+  </si>
+  <si>
+    <t>26.10.2019-01.11.2019</t>
+  </si>
+  <si>
+    <t>02.11.2019-08.11.2019</t>
+  </si>
+  <si>
+    <t>09.11.2019-15.11.2019</t>
+  </si>
+  <si>
+    <t>Statusprotokoll, Erstellung der Datenbanktabellen</t>
   </si>
 </sst>
 </file>
@@ -544,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629CB0FE-3767-48C8-99DB-4A99BF8A238C}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -680,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -735,6 +747,102 @@
         <v>4</v>
       </c>
       <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
